--- a/Benchmarks/Water Chemistry/TSS v2/Spearmans2_no_outliers.xlsx
+++ b/Benchmarks/Water Chemistry/TSS v2/Spearmans2_no_outliers.xlsx
@@ -8,35 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateoforegon-my.sharepoint.com/personal/sabine_berzins_deq_oregon_gov/Documents/Documents/BioMonORDEQ/Benchmarks/Water Chemistry/TSS v2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_F0465DCA8F79A8D366075C52F37BD2726AC5E1A3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F34AFA31-4DA6-4CB9-9183-592F5ECA9FC9}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="11_ED6DBDCA8F79A8D366075C52F37BD2720A4C50C3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60B31D4B-16F8-4F6F-90C2-0101B05E274B}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="1040" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="7776" yWindow="3048" windowWidth="7476" windowHeight="9960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$327</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$332</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1956" uniqueCount="82">
   <si>
     <t>rowname</t>
   </si>
@@ -230,6 +218,15 @@
     <t>SANDWS</t>
   </si>
   <si>
+    <t>PCTSILICICWS</t>
+  </si>
+  <si>
+    <t>PCT_EROD</t>
+  </si>
+  <si>
+    <t>PCTNONCARBRESIDWS</t>
+  </si>
+  <si>
     <t>PCTIMP2001WS</t>
   </si>
   <si>
@@ -279,7 +276,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,16 +292,47 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -312,15 +340,86 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -625,10 +724,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C327"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:C331"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -740,7 +840,7 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>0.81281715292895362</v>
+        <v>0.81239701389453534</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -751,7 +851,7 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>0.80235466003025235</v>
+        <v>0.80196778489174914</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -795,7 +895,7 @@
         <v>3</v>
       </c>
       <c r="C15">
-        <v>0.83577891200898036</v>
+        <v>0.83491679635299865</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -806,7 +906,7 @@
         <v>4</v>
       </c>
       <c r="C16">
-        <v>0.82918219577754371</v>
+        <v>0.82836713166443354</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -1029,7 +1129,7 @@
         <v>-0.81484870197130521</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -1279,7 +1379,7 @@
         <v>38</v>
       </c>
       <c r="C59">
-        <v>-0.90435438799249646</v>
+        <v>-0.89998873189710471</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -1348,7 +1448,7 @@
         <v>0.87598187042932274</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>46</v>
       </c>
@@ -1361,21 +1461,21 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B67" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C67">
         <v>0.97275461975693656</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B68" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C68">
         <v>0.8958285549541003</v>
@@ -1458,12 +1558,12 @@
         <v>0.86261890013713283</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B76" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C76">
         <v>0.8958285549541003</v>
@@ -1675,7 +1775,7 @@
         <v>29</v>
       </c>
       <c r="C95">
-        <v>0.85332698818743591</v>
+        <v>0.84954149865237805</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
@@ -1686,7 +1786,7 @@
         <v>30</v>
       </c>
       <c r="C96">
-        <v>0.90050002806304152</v>
+        <v>0.89611960857388051</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
@@ -1697,7 +1797,7 @@
         <v>31</v>
       </c>
       <c r="C97">
-        <v>0.83552524922747595</v>
+        <v>0.8311941478559185</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
@@ -1708,7 +1808,7 @@
         <v>33</v>
       </c>
       <c r="C98">
-        <v>0.84535740061928422</v>
+        <v>0.84145017151826407</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
@@ -1719,7 +1819,7 @@
         <v>34</v>
       </c>
       <c r="C99">
-        <v>0.89277012258410804</v>
+        <v>0.88800203101227915</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
@@ -1730,7 +1830,7 @@
         <v>37</v>
       </c>
       <c r="C100">
-        <v>-0.90435438799249646</v>
+        <v>-0.89998873189710471</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
@@ -1917,7 +2017,7 @@
         <v>3</v>
       </c>
       <c r="C117">
-        <v>0.99633727304760489</v>
+        <v>0.99634238918972584</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
@@ -1928,7 +2028,7 @@
         <v>5</v>
       </c>
       <c r="C118">
-        <v>0.83907164172211379</v>
+        <v>0.83842480778557715</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
@@ -1939,7 +2039,7 @@
         <v>6</v>
       </c>
       <c r="C119">
-        <v>0.87008505504887035</v>
+        <v>0.86971530532835795</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
@@ -1950,7 +2050,7 @@
         <v>7</v>
       </c>
       <c r="C120">
-        <v>0.82918219577754371</v>
+        <v>0.82836713166443354</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
@@ -1961,7 +2061,7 @@
         <v>8</v>
       </c>
       <c r="C121">
-        <v>0.80235466003025235</v>
+        <v>0.80196778489174914</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
@@ -2126,7 +2226,7 @@
         <v>4</v>
       </c>
       <c r="C136">
-        <v>0.99633727304760489</v>
+        <v>0.99634238918972584</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
@@ -2137,7 +2237,7 @@
         <v>5</v>
       </c>
       <c r="C137">
-        <v>0.84346673275903072</v>
+        <v>0.84278078146120461</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
@@ -2148,7 +2248,7 @@
         <v>6</v>
       </c>
       <c r="C138">
-        <v>0.87813995128337818</v>
+        <v>0.87772806313930707</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
@@ -2159,7 +2259,7 @@
         <v>7</v>
       </c>
       <c r="C139">
-        <v>0.83577891200898036</v>
+        <v>0.83491679635299865</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
@@ -2170,7 +2270,7 @@
         <v>8</v>
       </c>
       <c r="C140">
-        <v>0.81281715292895362</v>
+        <v>0.81239701389453534</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
@@ -2219,109 +2319,109 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="B145" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="C145">
-        <v>0.91038265308028254</v>
+        <v>-0.82119166588364101</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="B146" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="C146">
-        <v>0.91038265308028254</v>
+        <v>0.84728978870344507</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
+        <v>16</v>
+      </c>
+      <c r="B147" t="s">
         <v>15</v>
       </c>
-      <c r="B147" t="s">
-        <v>17</v>
-      </c>
       <c r="C147">
-        <v>0.89115525770542581</v>
+        <v>0.91038265308028254</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="B148" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="C148">
-        <v>0.99978579084638086</v>
+        <v>0.91038265308028254</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="B149" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="C149">
-        <v>0.98933760091480849</v>
+        <v>0.89115525770542581</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B150" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C150">
-        <v>0.93259784198625506</v>
+        <v>0.99978579084638086</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B151" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C151">
-        <v>0.87470179214438704</v>
+        <v>0.98933760091480849</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B152" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C152">
-        <v>0.87217871731380625</v>
+        <v>0.93259784198625506</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="B153" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="C153">
-        <v>0.80043288153532943</v>
+        <v>0.87470179214438704</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B154" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C154">
         <v>0.87217871731380625</v>
@@ -2329,310 +2429,310 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="B155" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="C155">
-        <v>0.871876860077621</v>
+        <v>0.80043288153532943</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B156" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C156">
-        <v>0.88022912359571448</v>
+        <v>0.87217871731380625</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B157" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C157">
-        <v>0.90995261689878937</v>
+        <v>0.871876860077621</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
+        <v>79</v>
+      </c>
+      <c r="B158" t="s">
         <v>76</v>
       </c>
-      <c r="B158" t="s">
-        <v>75</v>
-      </c>
       <c r="C158">
-        <v>0.89036023109944429</v>
+        <v>0.88022912359571448</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="B159" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="C159">
-        <v>0.89115525770542581</v>
+        <v>0.90995261689878937</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B160" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C160">
-        <v>0.87470179214438704</v>
+        <v>0.89036023109944429</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="B161" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="C161">
-        <v>0.87368446561288382</v>
+        <v>0.89115525770542581</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B162" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C162">
-        <v>0.8818583614483575</v>
+        <v>0.87470179214438704</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
+        <v>78</v>
+      </c>
+      <c r="B163" t="s">
         <v>75</v>
       </c>
-      <c r="B163" t="s">
-        <v>74</v>
-      </c>
       <c r="C163">
-        <v>0.93687750323733954</v>
+        <v>0.87368446561288382</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B164" t="s">
         <v>76</v>
       </c>
       <c r="C164">
-        <v>0.89036023109944429</v>
+        <v>0.8818583614483575</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="B165" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C165">
-        <v>0.82276510495353716</v>
+        <v>0.93687750323733954</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="B166" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="C166">
-        <v>0.94186078915767446</v>
+        <v>0.89036023109944429</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B167" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C167">
-        <v>0.82276510495353716</v>
+        <v>0.81642034867781155</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B168" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C168">
-        <v>0.9252231596339453</v>
+        <v>0.94186078915767446</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B169" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C169">
-        <v>0.94186078915767446</v>
+        <v>0.81642034867781155</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B170" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C170">
-        <v>0.9252231596339453</v>
+        <v>0.91781987699170031</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B171" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C171">
-        <v>0.98933760091480849</v>
+        <v>0.94186078915767446</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B172" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C172">
-        <v>0.98922876170090313</v>
+        <v>0.91781987699170031</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B173" t="s">
         <v>74</v>
       </c>
       <c r="C173">
-        <v>0.94082219083836838</v>
+        <v>0.98933760091480849</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B174" t="s">
         <v>75</v>
       </c>
       <c r="C174">
-        <v>0.8818583614483575</v>
+        <v>0.98922876170090313</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B175" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C175">
-        <v>0.88022912359571448</v>
+        <v>0.94082219083836838</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B176" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C176">
-        <v>0.93259784198625506</v>
+        <v>0.8818583614483575</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B177" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C177">
-        <v>0.93265223905745887</v>
+        <v>0.88022912359571448</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
+        <v>77</v>
+      </c>
+      <c r="B178" t="s">
         <v>74</v>
       </c>
-      <c r="B178" t="s">
-        <v>73</v>
-      </c>
       <c r="C178">
-        <v>0.94082219083836838</v>
+        <v>0.93259784198625506</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B179" t="s">
         <v>75</v>
       </c>
       <c r="C179">
-        <v>0.93687750323733954</v>
+        <v>0.93265223905745887</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B180" t="s">
         <v>76</v>
       </c>
       <c r="C180">
-        <v>0.90995261689878937</v>
+        <v>0.94082219083836838</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="B181" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="C181">
-        <v>0.80541885205299601</v>
+        <v>0.93687750323733954</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="B182" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="C182">
-        <v>-0.80267289133100639</v>
+        <v>0.90995261689878937</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
@@ -2640,164 +2740,164 @@
         <v>39</v>
       </c>
       <c r="B183" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="C183">
-        <v>0.80043288153532943</v>
+        <v>0.80541885205299601</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="B184" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="C184">
-        <v>0.99978579084638086</v>
+        <v>-0.80267289133100639</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="B185" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="C185">
-        <v>0.98922876170090313</v>
+        <v>0.80043288153532943</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B186" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C186">
-        <v>0.93265223905745887</v>
+        <v>0.84728978870344507</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B187" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C187">
-        <v>0.87368446561288382</v>
+        <v>-0.82119166588364101</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B188" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C188">
-        <v>0.871876860077621</v>
+        <v>0.99978579084638086</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="B189" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="C189">
-        <v>0.83508549361475271</v>
+        <v>0.98922876170090313</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="B190" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="C190">
-        <v>0.83508549361475271</v>
+        <v>0.93265223905745887</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="B191" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C191">
-        <v>-0.81484870197130521</v>
+        <v>0.87368446561288382</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="B192" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="C192">
-        <v>0.8458739811923478</v>
+        <v>0.871876860077621</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="B193" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C193">
-        <v>0.97275461975693656</v>
+        <v>0.83508549361475271</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="B194" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="C194">
-        <v>0.99392286927147788</v>
+        <v>0.83508549361475271</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="B195" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="C195">
-        <v>0.88479349656750306</v>
+        <v>-0.81484870197130521</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="B196" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="C196">
-        <v>0.98578611387074833</v>
+        <v>0.8458739811923478</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="B197" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="C197">
-        <v>0.86376603901488869</v>
+        <v>0.97275461975693656</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
@@ -2805,10 +2905,10 @@
         <v>20</v>
       </c>
       <c r="B198" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C198">
-        <v>0.83668790352220768</v>
+        <v>0.99392286927147788</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
@@ -2816,10 +2916,10 @@
         <v>20</v>
       </c>
       <c r="B199" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C199">
-        <v>0.91318988376169696</v>
+        <v>0.88479349656750306</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
@@ -2827,10 +2927,10 @@
         <v>20</v>
       </c>
       <c r="B200" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C200">
-        <v>0.98498142251848209</v>
+        <v>0.98578611387074833</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
@@ -2838,54 +2938,54 @@
         <v>20</v>
       </c>
       <c r="B201" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C201">
-        <v>0.8252349970458005</v>
+        <v>0.86376603901488869</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B202" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C202">
-        <v>0.98578611387074833</v>
+        <v>0.83668790352220768</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B203" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C203">
-        <v>0.98224070996285384</v>
+        <v>0.91318988376169696</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B204" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C204">
-        <v>0.87381795703477705</v>
+        <v>0.98498142251848209</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B205" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C205">
-        <v>0.84652840756498948</v>
+        <v>0.8252349970458005</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
@@ -2893,10 +2993,10 @@
         <v>23</v>
       </c>
       <c r="B206" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C206">
-        <v>0.81572077648542507</v>
+        <v>0.98578611387074833</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
@@ -2904,10 +3004,10 @@
         <v>23</v>
       </c>
       <c r="B207" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C207">
-        <v>0.89998220295587583</v>
+        <v>0.98224070996285384</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
@@ -2915,54 +3015,54 @@
         <v>23</v>
       </c>
       <c r="B208" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C208">
-        <v>0.97290651675010253</v>
+        <v>0.87381795703477705</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B209" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C209">
-        <v>0.99392286927147788</v>
+        <v>0.84652840756498948</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B210" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C210">
-        <v>0.8811365137216618</v>
+        <v>0.81572077648542507</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B211" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C211">
-        <v>0.98224070996285384</v>
+        <v>0.89998220295587583</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B212" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C212">
-        <v>0.86139072966414632</v>
+        <v>0.97290651675010253</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
@@ -2970,10 +3070,10 @@
         <v>21</v>
       </c>
       <c r="B213" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C213">
-        <v>0.83523355380571596</v>
+        <v>0.99392286927147788</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
@@ -2981,10 +3081,10 @@
         <v>21</v>
       </c>
       <c r="B214" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C214">
-        <v>0.90961680733633499</v>
+        <v>0.8811365137216618</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
@@ -2992,10 +3092,10 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C215">
-        <v>0.99123927729621253</v>
+        <v>0.98224070996285384</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
@@ -3003,54 +3103,54 @@
         <v>21</v>
       </c>
       <c r="B216" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C216">
-        <v>0.83017578823623983</v>
+        <v>0.86139072966414632</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B217" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C217">
-        <v>0.98498142251848209</v>
+        <v>0.83523355380571596</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B218" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C218">
-        <v>0.99123927729621253</v>
+        <v>0.90961680733633499</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
+        <v>21</v>
+      </c>
+      <c r="B219" t="s">
         <v>27</v>
       </c>
-      <c r="B219" t="s">
-        <v>22</v>
-      </c>
       <c r="C219">
-        <v>0.88264488747300607</v>
+        <v>0.99123927729621253</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B220" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C220">
-        <v>0.97290651675010253</v>
+        <v>0.83017578823623983</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
@@ -3058,10 +3158,10 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C221">
-        <v>0.86261890013713283</v>
+        <v>0.98498142251848209</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
@@ -3069,10 +3169,10 @@
         <v>27</v>
       </c>
       <c r="B222" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C222">
-        <v>0.83617762027666009</v>
+        <v>0.99123927729621253</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
@@ -3080,10 +3180,10 @@
         <v>27</v>
       </c>
       <c r="B223" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C223">
-        <v>0.90620587548438969</v>
+        <v>0.88264488747300607</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
@@ -3091,51 +3191,51 @@
         <v>27</v>
       </c>
       <c r="B224" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C224">
-        <v>0.83683201538182428</v>
+        <v>0.97290651675010253</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B225" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C225">
-        <v>0.85304833892100362</v>
+        <v>0.86261890013713283</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B226" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C226">
-        <v>0.8252349970458005</v>
+        <v>0.83617762027666009</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B227" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C227">
-        <v>0.83017578823623983</v>
+        <v>0.90620587548438969</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
+        <v>27</v>
+      </c>
+      <c r="B228" t="s">
         <v>19</v>
-      </c>
-      <c r="B228" t="s">
-        <v>27</v>
       </c>
       <c r="C228">
         <v>0.83683201538182428</v>
@@ -3143,68 +3243,68 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="B229" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="C229">
-        <v>0.8458739811923478</v>
+        <v>0.85304833892100362</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="B230" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="C230">
-        <v>0.93076462923901315</v>
+        <v>0.8252349970458005</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="B231" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="C231">
-        <v>0.83865145417381981</v>
+        <v>0.83017578823623983</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="B232" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="C232">
-        <v>-0.84254742425163665</v>
+        <v>0.83683201538182428</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B233" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C233">
-        <v>-0.84426831845563077</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.8458739811923478</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B234" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C234">
-        <v>-0.90607119206199771</v>
+        <v>0.93076462923901315</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
@@ -3212,54 +3312,54 @@
         <v>55</v>
       </c>
       <c r="B235" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C235">
-        <v>-0.911693192786319</v>
+        <v>0.83865145417381981</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="B236" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="C236">
-        <v>0.91318988376169696</v>
+        <v>-0.84254742425163665</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="B237" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="C237">
-        <v>0.90961680733633499</v>
+        <v>-0.84426831845563077</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="B238" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="C238">
-        <v>0.97979210867034228</v>
+        <v>-0.90607119206199771</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="B239" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="C239">
-        <v>0.89998220295587583</v>
+        <v>-0.911693192786319</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
@@ -3267,10 +3367,10 @@
         <v>26</v>
       </c>
       <c r="B240" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C240">
-        <v>0.98863354125821257</v>
+        <v>0.91318988376169696</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
@@ -3278,10 +3378,10 @@
         <v>26</v>
       </c>
       <c r="B241" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C241">
-        <v>0.97952164800223873</v>
+        <v>0.90961680733633499</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
@@ -3289,76 +3389,76 @@
         <v>26</v>
       </c>
       <c r="B242" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C242">
-        <v>0.90620587548438969</v>
+        <v>0.97979210867034228</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B243" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C243">
-        <v>0.85304833892100362</v>
+        <v>0.89998220295587583</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="B244" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C244">
-        <v>0.95043147987911725</v>
+        <v>0.98863354125821257</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B245" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C245">
-        <v>0.87813995128337818</v>
+        <v>0.97952164800223873</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B246" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="C246">
-        <v>0.87008505504887035</v>
+        <v>0.90620587548438969</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B247" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C247">
-        <v>0.96541325422940116</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.85304833892100362</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="B248" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="C248">
-        <v>0.95755419889549265</v>
+        <v>0.95043147987911725</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
@@ -3366,54 +3466,54 @@
         <v>6</v>
       </c>
       <c r="B249" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C249">
-        <v>0.92607961384553728</v>
+        <v>0.87772806313930707</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="B250" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="C250">
-        <v>0.94509775570309285</v>
+        <v>0.86971530532835795</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="B251" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C251">
-        <v>0.81606594274479494</v>
+        <v>0.96541325422940116</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="B252" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C252">
-        <v>0.94763887499796173</v>
+        <v>0.95755419889549265</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="B253" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C253">
-        <v>0.99536664955086862</v>
+        <v>0.92607961384553728</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
@@ -3421,10 +3521,10 @@
         <v>28</v>
       </c>
       <c r="B254" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C254">
-        <v>0.9456511559680385</v>
+        <v>0.94509775570309285</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
@@ -3432,10 +3532,10 @@
         <v>28</v>
       </c>
       <c r="B255" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C255">
-        <v>0.82127215180520674</v>
+        <v>0.81606594274479494</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
@@ -3443,18 +3543,18 @@
         <v>28</v>
       </c>
       <c r="B256" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C256">
-        <v>0.87762657548120393</v>
+        <v>0.94763887499796173</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
+        <v>28</v>
+      </c>
+      <c r="B257" t="s">
         <v>32</v>
-      </c>
-      <c r="B257" t="s">
-        <v>28</v>
       </c>
       <c r="C257">
         <v>0.99536664955086862</v>
@@ -3462,35 +3562,35 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B258" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C258">
-        <v>0.93259344297173263</v>
+        <v>0.9456511559680385</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B259" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C259">
-        <v>0.93855213320841235</v>
+        <v>0.82127215180520674</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B260" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C260">
-        <v>0.93787684292491613</v>
+        <v>0.87762657548120393</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
@@ -3498,10 +3598,10 @@
         <v>32</v>
       </c>
       <c r="B261" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C261">
-        <v>0.80562669291055045</v>
+        <v>0.99536664955086862</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
@@ -3509,54 +3609,54 @@
         <v>32</v>
       </c>
       <c r="B262" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C262">
-        <v>0.87752443813048353</v>
+        <v>0.93259344297173263</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
+        <v>32</v>
+      </c>
+      <c r="B263" t="s">
         <v>31</v>
       </c>
-      <c r="B263" t="s">
-        <v>28</v>
-      </c>
       <c r="C263">
-        <v>0.94763887499796173</v>
+        <v>0.93855213320841235</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B264" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C264">
-        <v>0.98931840808821037</v>
+        <v>0.93787684292491613</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B265" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C265">
-        <v>0.93320570779382961</v>
+        <v>0.80562669291055045</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B266" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C266">
-        <v>0.93855213320841235</v>
+        <v>0.87752443813048353</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
@@ -3564,10 +3664,10 @@
         <v>31</v>
       </c>
       <c r="B267" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C267">
-        <v>0.99017093453572858</v>
+        <v>0.94763887499796173</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
@@ -3575,10 +3675,10 @@
         <v>31</v>
       </c>
       <c r="B268" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C268">
-        <v>0.93761106516609372</v>
+        <v>0.98931840808821037</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
@@ -3586,10 +3686,10 @@
         <v>31</v>
       </c>
       <c r="B269" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C269">
-        <v>-0.80479711907240159</v>
+        <v>0.93320570779382961</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
@@ -3597,10 +3697,10 @@
         <v>31</v>
       </c>
       <c r="B270" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C270">
-        <v>-0.84591054857453385</v>
+        <v>0.93855213320841235</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
@@ -3608,10 +3708,10 @@
         <v>31</v>
       </c>
       <c r="B271" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C271">
-        <v>0.86733723324496903</v>
+        <v>0.99017093453572858</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
@@ -3619,54 +3719,54 @@
         <v>31</v>
       </c>
       <c r="B272" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C272">
-        <v>0.83552524922747595</v>
+        <v>0.93761106516609372</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B273" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C273">
-        <v>0.94509775570309285</v>
+        <v>-0.80479711907240159</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B274" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C274">
-        <v>0.95412058477960204</v>
+        <v>-0.84591054857453385</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B275" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C275">
-        <v>0.98931840808821037</v>
+        <v>0.86733723324496903</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B276" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C276">
-        <v>0.93259344297173263</v>
+        <v>0.8311941478559185</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
@@ -3674,10 +3774,10 @@
         <v>29</v>
       </c>
       <c r="B277" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C277">
-        <v>0.99698992232050698</v>
+        <v>0.94509775570309285</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
@@ -3685,10 +3785,10 @@
         <v>29</v>
       </c>
       <c r="B278" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C278">
-        <v>0.95504430552259389</v>
+        <v>0.95412058477960204</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
@@ -3696,10 +3796,10 @@
         <v>29</v>
       </c>
       <c r="B279" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C279">
-        <v>-0.82255098980120644</v>
+        <v>0.98931840808821037</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
@@ -3707,10 +3807,10 @@
         <v>29</v>
       </c>
       <c r="B280" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C280">
-        <v>-0.87984930061471545</v>
+        <v>0.93259344297173263</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
@@ -3718,10 +3818,10 @@
         <v>29</v>
       </c>
       <c r="B281" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C281">
-        <v>0.86932053871902826</v>
+        <v>0.99698992232050698</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
@@ -3729,54 +3829,54 @@
         <v>29</v>
       </c>
       <c r="B282" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C282">
-        <v>0.85332698818743591</v>
+        <v>0.95504430552259389</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B283" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C283">
-        <v>0.9456511559680385</v>
+        <v>-0.82255098980120644</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B284" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C284">
-        <v>0.99698992232050698</v>
+        <v>-0.87984930061471545</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B285" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C285">
-        <v>0.94892685843193336</v>
+        <v>0.86932053871902826</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B286" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C286">
-        <v>0.99017093453572858</v>
+        <v>0.84954149865237805</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
@@ -3784,10 +3884,10 @@
         <v>33</v>
       </c>
       <c r="B287" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C287">
-        <v>0.93787684292491613</v>
+        <v>0.9456511559680385</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
@@ -3795,10 +3895,10 @@
         <v>33</v>
       </c>
       <c r="B288" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C288">
-        <v>0.95570059638301763</v>
+        <v>0.99698992232050698</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
@@ -3806,10 +3906,10 @@
         <v>33</v>
       </c>
       <c r="B289" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C289">
-        <v>-0.82530096574014911</v>
+        <v>0.94892685843193336</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
@@ -3817,10 +3917,10 @@
         <v>33</v>
       </c>
       <c r="B290" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C290">
-        <v>-0.87058960594492862</v>
+        <v>0.99017093453572858</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
@@ -3828,10 +3928,10 @@
         <v>33</v>
       </c>
       <c r="B291" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C291">
-        <v>0.87360527986291547</v>
+        <v>0.93787684292491613</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
@@ -3839,54 +3939,54 @@
         <v>33</v>
       </c>
       <c r="B292" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C292">
-        <v>0.84535740061928422</v>
+        <v>0.95570059638301763</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B293" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C293">
-        <v>0.81606594274479494</v>
+        <v>-0.82530096574014911</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B294" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C294">
-        <v>0.95412058477960204</v>
+        <v>-0.87058960594492862</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B295" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C295">
-        <v>0.93320570779382961</v>
+        <v>0.87360527986291547</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B296" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C296">
-        <v>0.94892685843193336</v>
+        <v>0.84145017151826407</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
@@ -3894,10 +3994,10 @@
         <v>30</v>
       </c>
       <c r="B297" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C297">
-        <v>0.99417549892530888</v>
+        <v>0.81606594274479494</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
@@ -3905,10 +4005,10 @@
         <v>30</v>
       </c>
       <c r="B298" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C298">
-        <v>-0.83038730297768404</v>
+        <v>0.95412058477960204</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
@@ -3916,10 +4016,10 @@
         <v>30</v>
       </c>
       <c r="B299" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C299">
-        <v>-0.91752368801258477</v>
+        <v>0.93320570779382961</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
@@ -3927,10 +4027,10 @@
         <v>30</v>
       </c>
       <c r="B300" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C300">
-        <v>0.80541885205299601</v>
+        <v>0.94892685843193336</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
@@ -3938,54 +4038,54 @@
         <v>30</v>
       </c>
       <c r="B301" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C301">
-        <v>0.90050002806304152</v>
+        <v>0.99417549892530888</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B302" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C302">
-        <v>0.82127215180520674</v>
+        <v>-0.83038730297768404</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B303" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C303">
-        <v>0.95504430552259389</v>
+        <v>-0.91752368801258477</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B304" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C304">
-        <v>0.99417549892530888</v>
+        <v>0.80541885205299601</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B305" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C305">
-        <v>0.93761106516609372</v>
+        <v>0.89611960857388051</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
@@ -3993,10 +4093,10 @@
         <v>34</v>
       </c>
       <c r="B306" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C306">
-        <v>0.80562669291055045</v>
+        <v>0.82127215180520674</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
@@ -4004,10 +4104,10 @@
         <v>34</v>
       </c>
       <c r="B307" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C307">
-        <v>0.95570059638301763</v>
+        <v>0.95504430552259389</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
@@ -4015,10 +4115,10 @@
         <v>34</v>
       </c>
       <c r="B308" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C308">
-        <v>-0.83600444923975847</v>
+        <v>0.99417549892530888</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
@@ -4026,10 +4126,10 @@
         <v>34</v>
       </c>
       <c r="B309" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C309">
-        <v>-0.90500716792243874</v>
+        <v>0.93761106516609372</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
@@ -4037,10 +4137,10 @@
         <v>34</v>
       </c>
       <c r="B310" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C310">
-        <v>0.80117326849345438</v>
+        <v>0.80562669291055045</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
@@ -4048,62 +4148,62 @@
         <v>34</v>
       </c>
       <c r="B311" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C311">
-        <v>0.89277012258410804</v>
+        <v>0.95570059638301763</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B312" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="C312">
-        <v>0.97305740134674379</v>
+        <v>-0.83600444923975847</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B313" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="C313">
-        <v>0.92724011531617989</v>
+        <v>-0.90500716792243874</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B314" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C314">
-        <v>0.95410520342821026</v>
+        <v>0.80117326849345438</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B315" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C315">
-        <v>0.93131258595650313</v>
+        <v>0.88800203101227915</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
+        <v>10</v>
+      </c>
+      <c r="B316" t="s">
         <v>9</v>
-      </c>
-      <c r="B316" t="s">
-        <v>10</v>
       </c>
       <c r="C316">
         <v>0.97305740134674379</v>
@@ -4111,35 +4211,35 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B317" t="s">
         <v>11</v>
       </c>
       <c r="C317">
-        <v>0.94778421987653616</v>
+        <v>0.92724011531617989</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B318" t="s">
         <v>12</v>
       </c>
       <c r="C318">
-        <v>0.95402376071242556</v>
+        <v>0.95410520342821026</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B319" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C319">
-        <v>0.8267524679543562</v>
+        <v>0.93131258595650313</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
@@ -4147,54 +4247,54 @@
         <v>9</v>
       </c>
       <c r="B320" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C320">
-        <v>0.95362868784814048</v>
+        <v>0.97305740134674379</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B321" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C321">
-        <v>0.84346673275903072</v>
+        <v>0.94778421987653616</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B322" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C322">
-        <v>0.83907164172211379</v>
+        <v>0.95402376071242556</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B323" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C323">
-        <v>0.96541325422940116</v>
+        <v>0.8267524679543562</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B324" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C324">
-        <v>0.98990798205520303</v>
+        <v>0.95362868784814048</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
@@ -4202,39 +4302,5691 @@
         <v>5</v>
       </c>
       <c r="B325" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C325">
-        <v>0.93549038261419715</v>
+        <v>0.84278078146120461</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="B326" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="C326">
-        <v>0.9999968524210392</v>
+        <v>0.83842480778557715</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
+        <v>5</v>
+      </c>
+      <c r="B327" t="s">
+        <v>6</v>
+      </c>
+      <c r="C327">
+        <v>0.96541325422940116</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>5</v>
+      </c>
+      <c r="B328" t="s">
+        <v>7</v>
+      </c>
+      <c r="C328">
+        <v>0.98990798205520303</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>5</v>
+      </c>
+      <c r="B329" t="s">
+        <v>8</v>
+      </c>
+      <c r="C329">
+        <v>0.93549038261419715</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>71</v>
+      </c>
+      <c r="B330" t="s">
+        <v>70</v>
+      </c>
+      <c r="C330">
+        <v>0.9999968524210392</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>70</v>
+      </c>
+      <c r="B331" t="s">
+        <v>71</v>
+      </c>
+      <c r="C331">
+        <v>0.9999968524210392</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C332" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters blank="1">
+        <filter val="AGKFFACTWS"/>
+        <filter val="AL2O3WS"/>
+        <filter val="BANKFULLDEPTH"/>
+        <filter val="BANKFULLWIDTH"/>
+        <filter val="BFIWS"/>
+        <filter val="CAOWS"/>
+        <filter val="CBNFWS"/>
+        <filter val="CLAYWS"/>
+        <filter val="DAMDENSWS"/>
+        <filter val="DAMNIDSTORWS"/>
+        <filter val="DAMNRMSTORWS"/>
+        <filter val="ELEVWS"/>
+        <filter val="FE2O3WS"/>
+        <filter val="FERTWS"/>
+        <filter val="HUDEN2010WS"/>
+        <filter val="INORGNWETDEP2008WS"/>
+        <filter val="K2OWS"/>
+        <filter val="MANUREWS"/>
+        <filter val="MAST2008"/>
+        <filter val="MGOWS"/>
+        <filter val="MWST2008"/>
+        <filter val="NA2OWS"/>
+        <filter val="NABD_DENSWS"/>
+        <filter val="NABD_NIDSTORWS"/>
+        <filter val="NABD_NRMSTORWS"/>
+        <filter val="NANIWS"/>
+        <filter val="NH42008WS"/>
+        <filter val="NO32008WS"/>
+        <filter val="NSURPWS"/>
+        <filter val="P2O5WS"/>
+        <filter val="PCT_EROD"/>
+        <filter val="PCTAGSLPHIGH2001WS"/>
+        <filter val="PCTAGSLPMID2001WS"/>
+        <filter val="PCTBURNAREA2002WS"/>
+        <filter val="PCTDECID2001WS"/>
+        <filter val="PCTFIRE2002WS"/>
+        <filter val="PCTHAY2001WS"/>
+        <filter val="PCTHIGHSEV2002WS"/>
+        <filter val="PCTIMP2001WS"/>
+        <filter val="PCTIMPSLPHIGH2001WS"/>
+        <filter val="PCTIMPSLPMID2001WS"/>
+        <filter val="PCTLOWSEV2002WS"/>
+        <filter val="PCTMODSEV2002WS"/>
+        <filter val="PCTMXFST2001WS"/>
+        <filter val="PCTNONCARBRESIDWS"/>
+        <filter val="PCTSILICICWS"/>
+        <filter val="PCTUNDSEV2002WS"/>
+        <filter val="PCTURBLO2001WS"/>
+        <filter val="PCTURBMD2001WS"/>
+        <filter val="PERMWS"/>
+        <filter val="POPDEN2010WS"/>
+        <filter val="PRECIP_MINUS_EVTWS"/>
+        <filter val="PRECIP2008WS"/>
+        <filter val="PRECIP8110WS"/>
+        <filter val="PRECIP9120WS"/>
+        <filter val="RUNOFFWS"/>
+        <filter val="SANDWS"/>
+        <filter val="SIO2WS"/>
+        <filter val="SN2008WS"/>
+        <filter val="SW_FLUXWS"/>
+        <filter val="THALWEGDEPTH"/>
+        <filter val="TMAX8110WS"/>
+        <filter val="TMAX9120WS"/>
+        <filter val="TMEAN2008WS"/>
+        <filter val="TMEAN8110WS"/>
+        <filter val="TMEAN9120WS"/>
+        <filter val="TMIN8110WS"/>
+        <filter val="TMIN9120WS"/>
+        <filter val="WATERINPUTWS"/>
+        <filter val="WDRW_LDWS"/>
+        <filter val="WETTEDWIDTH"/>
+        <filter val="WWTPALLDENSWS"/>
+        <filter val="WWTPMINORDENSWS"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C331">
+    <sortCondition ref="A2:A331"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9357244F-685F-474E-B45C-F5E9BAF897F3}">
+  <dimension ref="A1:E325"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="C183" sqref="C183"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.21875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" style="13" customWidth="1"/>
+    <col min="3" max="4" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>0.94778421987653616</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>0.92724011531617989</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>0.98287734908245394</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>0.86364794521542665</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6">
+        <v>0.98846182727600129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7">
+        <v>0.93989915641315791</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8">
+        <v>0.88023355406652315</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9">
+        <v>0.82890654263410013</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>0.81239701389453534</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>0.80196778489174914</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>0.93549038261419715</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <v>0.92607961384553728</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>0.93797226950541579</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>0.83491679635299865</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>0.82836713166443354</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>0.98990798205520303</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18">
+        <v>0.95755419889549265</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19">
+        <v>0.93797226950541579</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20">
+        <v>-0.82255098980120644</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21">
+        <v>-0.83038730297768404</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22">
+        <v>-0.80479711907240159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23">
+        <v>-0.82530096574014911</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24">
+        <v>-0.83600444923975847</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25">
+        <v>-0.84708591687769808</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26">
+        <v>-0.90607119206199771</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27">
+        <v>-0.80315794094959614</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28">
+        <v>0.93825610107815727</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29">
+        <v>0.82890654263410013</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E30">
+        <v>0.88387342598735164</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31">
+        <v>0.95402376071242556</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32">
+        <v>0.95410520342821026</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33">
+        <v>0.98287734908245394</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34">
+        <v>0.86396293610851604</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35">
+        <v>0.98830167662976798</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36">
+        <v>-0.81484870197130521</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37">
+        <v>0.82755828657691743</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38">
+        <v>0.99091308818837265</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" t="s">
+        <v>42</v>
+      </c>
+      <c r="E39">
+        <v>0.82386400141167915</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" t="s">
+        <v>43</v>
+      </c>
+      <c r="E40">
+        <v>0.82396437582238191</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" t="s">
+        <v>45</v>
+      </c>
+      <c r="E41">
+        <v>0.99080673504790762</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42" t="s">
+        <v>40</v>
+      </c>
+      <c r="E42">
+        <v>0.84530603861344766</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" t="s">
+        <v>45</v>
+      </c>
+      <c r="D43" t="s">
+        <v>41</v>
+      </c>
+      <c r="E43">
+        <v>0.99991510635253211</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" t="s">
+        <v>45</v>
+      </c>
+      <c r="D44" t="s">
+        <v>42</v>
+      </c>
+      <c r="E44">
+        <v>0.84986950516657955</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" t="s">
+        <v>45</v>
+      </c>
+      <c r="D45" t="s">
+        <v>43</v>
+      </c>
+      <c r="E45">
+        <v>0.85005564368882003</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" t="s">
+        <v>45</v>
+      </c>
+      <c r="D46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E46">
+        <v>0.99080673504790762</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" t="s">
+        <v>41</v>
+      </c>
+      <c r="D47" t="s">
+        <v>40</v>
+      </c>
+      <c r="E47">
+        <v>0.8444301135806952</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C48" t="s">
+        <v>41</v>
+      </c>
+      <c r="D48" t="s">
+        <v>42</v>
+      </c>
+      <c r="E48">
+        <v>0.84883613770702948</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C49" t="s">
+        <v>41</v>
+      </c>
+      <c r="D49" t="s">
+        <v>43</v>
+      </c>
+      <c r="E49">
+        <v>0.8489570550991874</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" t="s">
+        <v>41</v>
+      </c>
+      <c r="D50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E50">
+        <v>0.99091308818837265</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51" t="s">
+        <v>41</v>
+      </c>
+      <c r="D51" t="s">
+        <v>45</v>
+      </c>
+      <c r="E51">
+        <v>0.99991510635253211</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" t="s">
+        <v>37</v>
+      </c>
+      <c r="D52" t="s">
+        <v>29</v>
+      </c>
+      <c r="E52">
+        <v>-0.87984930061471545</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C53" t="s">
+        <v>37</v>
+      </c>
+      <c r="D53" t="s">
+        <v>30</v>
+      </c>
+      <c r="E53">
+        <v>-0.91752368801258477</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C54" t="s">
+        <v>37</v>
+      </c>
+      <c r="D54" t="s">
+        <v>31</v>
+      </c>
+      <c r="E54">
+        <v>-0.84591054857453385</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C55" t="s">
+        <v>37</v>
+      </c>
+      <c r="D55" t="s">
+        <v>33</v>
+      </c>
+      <c r="E55">
+        <v>-0.87058960594492862</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C56" t="s">
+        <v>37</v>
+      </c>
+      <c r="D56" t="s">
+        <v>34</v>
+      </c>
+      <c r="E56">
+        <v>-0.90500716792243874</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C57" t="s">
+        <v>37</v>
+      </c>
+      <c r="D57" t="s">
+        <v>39</v>
+      </c>
+      <c r="E57">
+        <v>-0.80267289133100639</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C58" t="s">
+        <v>37</v>
+      </c>
+      <c r="D58" t="s">
+        <v>38</v>
+      </c>
+      <c r="E58">
+        <v>-0.89998873189710471</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C59" t="s">
+        <v>57</v>
+      </c>
+      <c r="D59" t="s">
+        <v>55</v>
+      </c>
+      <c r="E59">
+        <v>-0.84254742425163665</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60">
+        <v>0.95362868784814048</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61">
+        <v>0.93131258595650313</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62">
+        <v>0.98846182727600129</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63">
+        <v>0.98830167662976798</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" t="s">
+        <v>13</v>
+      </c>
+      <c r="E64">
+        <v>0.87598187042932274</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C65" t="s">
+        <v>72</v>
+      </c>
+      <c r="D65" t="s">
+        <v>73</v>
+      </c>
+      <c r="E65">
+        <v>0.97275461975693656</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C66" t="s">
+        <v>24</v>
+      </c>
+      <c r="D66" t="s">
+        <v>20</v>
+      </c>
+      <c r="E66">
+        <v>0.86376603901488869</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C67" t="s">
+        <v>24</v>
+      </c>
+      <c r="D67" t="s">
+        <v>21</v>
+      </c>
+      <c r="E67">
+        <v>0.86139072966414632</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C68" t="s">
+        <v>24</v>
+      </c>
+      <c r="D68" t="s">
+        <v>22</v>
+      </c>
+      <c r="E68">
+        <v>0.98582283440482499</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C69" t="s">
+        <v>24</v>
+      </c>
+      <c r="D69" t="s">
+        <v>23</v>
+      </c>
+      <c r="E69">
+        <v>0.84652840756498948</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C70" t="s">
+        <v>24</v>
+      </c>
+      <c r="D70" t="s">
+        <v>25</v>
+      </c>
+      <c r="E70">
+        <v>0.99355198939826483</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C71" t="s">
+        <v>24</v>
+      </c>
+      <c r="D71" t="s">
+        <v>26</v>
+      </c>
+      <c r="E71">
+        <v>0.98863354125821257</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C72" t="s">
+        <v>24</v>
+      </c>
+      <c r="D72" t="s">
+        <v>27</v>
+      </c>
+      <c r="E72">
+        <v>0.86261890013713283</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C73" t="s">
+        <v>56</v>
+      </c>
+      <c r="D73" t="s">
+        <v>55</v>
+      </c>
+      <c r="E73">
+        <v>0.83865145417381981</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C74" t="s">
+        <v>56</v>
+      </c>
+      <c r="D74" t="s">
+        <v>59</v>
+      </c>
+      <c r="E74">
+        <v>-0.80315794094959614</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C75" t="s">
+        <v>56</v>
+      </c>
+      <c r="D75" t="s">
+        <v>60</v>
+      </c>
+      <c r="E75">
+        <v>-0.86021093850870223</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76">
+        <v>0.8267524679543562</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" t="s">
+        <v>11</v>
+      </c>
+      <c r="E77">
+        <v>0.86364794521542665</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C78" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78" t="s">
+        <v>12</v>
+      </c>
+      <c r="E78">
+        <v>0.86396293610851604</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C79" t="s">
+        <v>13</v>
+      </c>
+      <c r="D79" t="s">
+        <v>14</v>
+      </c>
+      <c r="E79">
+        <v>0.87598187042932274</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C80" t="s">
+        <v>35</v>
+      </c>
+      <c r="D80" t="s">
+        <v>28</v>
+      </c>
+      <c r="E80">
+        <v>0.87762657548120393</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C81" t="s">
+        <v>35</v>
+      </c>
+      <c r="D81" t="s">
+        <v>29</v>
+      </c>
+      <c r="E81">
+        <v>0.86932053871902826</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C82" t="s">
+        <v>35</v>
+      </c>
+      <c r="D82" t="s">
+        <v>31</v>
+      </c>
+      <c r="E82">
+        <v>0.86733723324496903</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C83" t="s">
+        <v>35</v>
+      </c>
+      <c r="D83" t="s">
+        <v>32</v>
+      </c>
+      <c r="E83">
+        <v>0.87752443813048353</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C84" t="s">
+        <v>35</v>
+      </c>
+      <c r="D84" t="s">
+        <v>33</v>
+      </c>
+      <c r="E84">
+        <v>0.87360527986291547</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C85" t="s">
+        <v>35</v>
+      </c>
+      <c r="D85" t="s">
+        <v>34</v>
+      </c>
+      <c r="E85">
+        <v>0.80117326849345438</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C86" t="s">
+        <v>35</v>
+      </c>
+      <c r="D86" t="s">
+        <v>36</v>
+      </c>
+      <c r="E86">
+        <v>-0.84708591687769808</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C87" t="s">
+        <v>60</v>
+      </c>
+      <c r="D87" t="s">
+        <v>55</v>
+      </c>
+      <c r="E87">
+        <v>-0.911693192786319</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C88" t="s">
+        <v>60</v>
+      </c>
+      <c r="D88" t="s">
+        <v>56</v>
+      </c>
+      <c r="E88">
+        <v>-0.86021093850870223</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C89" t="s">
+        <v>60</v>
+      </c>
+      <c r="D89" t="s">
+        <v>58</v>
+      </c>
+      <c r="E89">
+        <v>0.80825179609687348</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C90" t="s">
+        <v>60</v>
+      </c>
+      <c r="D90" t="s">
+        <v>59</v>
+      </c>
+      <c r="E90">
+        <v>0.88387342598735164</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C91" t="s">
+        <v>38</v>
+      </c>
+      <c r="D91" t="s">
+        <v>29</v>
+      </c>
+      <c r="E91">
+        <v>0.84954149865237805</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C92" t="s">
+        <v>38</v>
+      </c>
+      <c r="D92" t="s">
+        <v>30</v>
+      </c>
+      <c r="E92">
+        <v>0.89611960857388051</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C93" t="s">
+        <v>38</v>
+      </c>
+      <c r="D93" t="s">
+        <v>31</v>
+      </c>
+      <c r="E93">
+        <v>0.8311941478559185</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C94" t="s">
+        <v>38</v>
+      </c>
+      <c r="D94" t="s">
+        <v>33</v>
+      </c>
+      <c r="E94">
+        <v>0.84145017151826407</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C95" t="s">
+        <v>38</v>
+      </c>
+      <c r="D95" t="s">
+        <v>34</v>
+      </c>
+      <c r="E95">
+        <v>0.88800203101227915</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C96" t="s">
+        <v>38</v>
+      </c>
+      <c r="D96" t="s">
+        <v>37</v>
+      </c>
+      <c r="E96">
+        <v>-0.89998873189710471</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C97" t="s">
+        <v>53</v>
+      </c>
+      <c r="D97" t="s">
+        <v>54</v>
+      </c>
+      <c r="E97">
+        <v>0.93989915641315791</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C98" t="s">
+        <v>40</v>
+      </c>
+      <c r="D98" t="s">
+        <v>41</v>
+      </c>
+      <c r="E98">
+        <v>0.8444301135806952</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C99" t="s">
+        <v>40</v>
+      </c>
+      <c r="D99" t="s">
+        <v>42</v>
+      </c>
+      <c r="E99">
+        <v>0.99650570886008394</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C100" t="s">
+        <v>40</v>
+      </c>
+      <c r="D100" t="s">
+        <v>43</v>
+      </c>
+      <c r="E100">
+        <v>0.99646031010367342</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C101" t="s">
+        <v>40</v>
+      </c>
+      <c r="D101" t="s">
+        <v>44</v>
+      </c>
+      <c r="E101">
+        <v>0.82755828657691743</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B102" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C102" t="s">
+        <v>40</v>
+      </c>
+      <c r="D102" t="s">
+        <v>45</v>
+      </c>
+      <c r="E102">
+        <v>0.84530603861344766</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C103" t="s">
+        <v>43</v>
+      </c>
+      <c r="D103" t="s">
+        <v>40</v>
+      </c>
+      <c r="E103">
+        <v>0.99646031010367342</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C104" t="s">
+        <v>43</v>
+      </c>
+      <c r="D104" t="s">
+        <v>41</v>
+      </c>
+      <c r="E104">
+        <v>0.8489570550991874</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C105" t="s">
+        <v>43</v>
+      </c>
+      <c r="D105" t="s">
+        <v>42</v>
+      </c>
+      <c r="E105">
+        <v>0.99997173794163396</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C106" t="s">
+        <v>43</v>
+      </c>
+      <c r="D106" t="s">
+        <v>44</v>
+      </c>
+      <c r="E106">
+        <v>0.82396437582238191</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C107" t="s">
+        <v>43</v>
+      </c>
+      <c r="D107" t="s">
+        <v>45</v>
+      </c>
+      <c r="E107">
+        <v>0.85005564368882003</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C108" t="s">
+        <v>42</v>
+      </c>
+      <c r="D108" t="s">
+        <v>40</v>
+      </c>
+      <c r="E108">
+        <v>0.99650570886008394</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C109" t="s">
+        <v>42</v>
+      </c>
+      <c r="D109" t="s">
+        <v>41</v>
+      </c>
+      <c r="E109">
+        <v>0.84883613770702948</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C110" t="s">
+        <v>42</v>
+      </c>
+      <c r="D110" t="s">
+        <v>43</v>
+      </c>
+      <c r="E110">
+        <v>0.99997173794163396</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C111" t="s">
+        <v>42</v>
+      </c>
+      <c r="D111" t="s">
+        <v>44</v>
+      </c>
+      <c r="E111">
+        <v>0.82386400141167915</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B112" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C112" t="s">
+        <v>42</v>
+      </c>
+      <c r="D112" t="s">
+        <v>45</v>
+      </c>
+      <c r="E112">
+        <v>0.84986950516657955</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C113" t="s">
+        <v>4</v>
+      </c>
+      <c r="D113" t="s">
+        <v>3</v>
+      </c>
+      <c r="E113">
+        <v>0.99634238918972584</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C114" t="s">
+        <v>4</v>
+      </c>
+      <c r="D114" t="s">
+        <v>5</v>
+      </c>
+      <c r="E114">
+        <v>0.83842480778557715</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C115" t="s">
+        <v>4</v>
+      </c>
+      <c r="D115" t="s">
+        <v>6</v>
+      </c>
+      <c r="E115">
+        <v>0.86971530532835795</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116" t="s">
+        <v>4</v>
+      </c>
+      <c r="D116" t="s">
+        <v>7</v>
+      </c>
+      <c r="E116">
+        <v>0.82836713166443354</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117" t="s">
+        <v>4</v>
+      </c>
+      <c r="D117" t="s">
+        <v>8</v>
+      </c>
+      <c r="E117">
+        <v>0.80196778489174914</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C118" t="s">
+        <v>25</v>
+      </c>
+      <c r="D118" t="s">
+        <v>20</v>
+      </c>
+      <c r="E118">
+        <v>0.83668790352220768</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C119" t="s">
+        <v>25</v>
+      </c>
+      <c r="D119" t="s">
+        <v>21</v>
+      </c>
+      <c r="E119">
+        <v>0.83523355380571596</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C120" t="s">
+        <v>25</v>
+      </c>
+      <c r="D120" t="s">
+        <v>22</v>
+      </c>
+      <c r="E120">
+        <v>0.96187362737939541</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C121" t="s">
+        <v>25</v>
+      </c>
+      <c r="D121" t="s">
+        <v>23</v>
+      </c>
+      <c r="E121">
+        <v>0.81572077648542507</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C122" t="s">
+        <v>25</v>
+      </c>
+      <c r="D122" t="s">
+        <v>24</v>
+      </c>
+      <c r="E122">
+        <v>0.99355198939826483</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C123" t="s">
+        <v>25</v>
+      </c>
+      <c r="D123" t="s">
+        <v>26</v>
+      </c>
+      <c r="E123">
+        <v>0.97952164800223873</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B124" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C124" t="s">
+        <v>25</v>
+      </c>
+      <c r="D124" t="s">
+        <v>27</v>
+      </c>
+      <c r="E124">
+        <v>0.83617762027666009</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B125" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C125" t="s">
+        <v>22</v>
+      </c>
+      <c r="D125" t="s">
+        <v>20</v>
+      </c>
+      <c r="E125">
+        <v>0.88479349656750306</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B126" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C126" t="s">
+        <v>22</v>
+      </c>
+      <c r="D126" t="s">
+        <v>21</v>
+      </c>
+      <c r="E126">
+        <v>0.8811365137216618</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C127" t="s">
+        <v>22</v>
+      </c>
+      <c r="D127" t="s">
+        <v>23</v>
+      </c>
+      <c r="E127">
+        <v>0.87381795703477705</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C128" t="s">
+        <v>22</v>
+      </c>
+      <c r="D128" t="s">
+        <v>24</v>
+      </c>
+      <c r="E128">
+        <v>0.98582283440482499</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C129" t="s">
+        <v>22</v>
+      </c>
+      <c r="D129" t="s">
+        <v>25</v>
+      </c>
+      <c r="E129">
+        <v>0.96187362737939541</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B130" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C130" t="s">
+        <v>22</v>
+      </c>
+      <c r="D130" t="s">
+        <v>26</v>
+      </c>
+      <c r="E130">
+        <v>0.97979210867034228</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C131" t="s">
+        <v>22</v>
+      </c>
+      <c r="D131" t="s">
+        <v>27</v>
+      </c>
+      <c r="E131">
+        <v>0.88264488747300607</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B132" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C132" t="s">
+        <v>3</v>
+      </c>
+      <c r="D132" t="s">
+        <v>4</v>
+      </c>
+      <c r="E132">
+        <v>0.99634238918972584</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C133" t="s">
+        <v>3</v>
+      </c>
+      <c r="D133" t="s">
+        <v>5</v>
+      </c>
+      <c r="E133">
+        <v>0.84278078146120461</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C134" t="s">
+        <v>3</v>
+      </c>
+      <c r="D134" t="s">
+        <v>6</v>
+      </c>
+      <c r="E134">
+        <v>0.87772806313930707</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B135" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C135" t="s">
+        <v>3</v>
+      </c>
+      <c r="D135" t="s">
+        <v>7</v>
+      </c>
+      <c r="E135">
+        <v>0.83491679635299865</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B136" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C136" t="s">
+        <v>3</v>
+      </c>
+      <c r="D136" t="s">
+        <v>8</v>
+      </c>
+      <c r="E136">
+        <v>0.81239701389453534</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C137" t="s">
+        <v>58</v>
+      </c>
+      <c r="D137" t="s">
+        <v>55</v>
+      </c>
+      <c r="E137">
+        <v>-0.84426831845563077</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C138" t="s">
+        <v>58</v>
+      </c>
+      <c r="D138" t="s">
+        <v>54</v>
+      </c>
+      <c r="E138">
+        <v>0.88023355406652315</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C139" t="s">
+        <v>58</v>
+      </c>
+      <c r="D139" t="s">
+        <v>59</v>
+      </c>
+      <c r="E139">
+        <v>0.93825610107815727</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B140" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C140" t="s">
+        <v>58</v>
+      </c>
+      <c r="D140" t="s">
+        <v>60</v>
+      </c>
+      <c r="E140">
+        <v>0.80825179609687348</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" s="3"/>
+      <c r="B141" s="9"/>
+      <c r="C141" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D141" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E141">
+        <v>-0.82119166588364101</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" s="3"/>
+      <c r="B142" s="9"/>
+      <c r="C142" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D142" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E142">
+        <v>0.84728978870344507</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B143" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C143" t="s">
+        <v>16</v>
+      </c>
+      <c r="D143" t="s">
+        <v>15</v>
+      </c>
+      <c r="E143">
+        <v>0.91038265308028254</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B144" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C144" t="s">
+        <v>15</v>
+      </c>
+      <c r="D144" t="s">
+        <v>16</v>
+      </c>
+      <c r="E144">
+        <v>0.91038265308028254</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B145" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C145" t="s">
+        <v>15</v>
+      </c>
+      <c r="D145" t="s">
+        <v>17</v>
+      </c>
+      <c r="E145">
+        <v>0.89115525770542581</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B146" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C146" t="s">
+        <v>74</v>
+      </c>
+      <c r="D146" t="s">
+        <v>75</v>
+      </c>
+      <c r="E146">
+        <v>0.99978579084638086</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B147" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C147" t="s">
+        <v>74</v>
+      </c>
+      <c r="D147" t="s">
+        <v>76</v>
+      </c>
+      <c r="E147">
+        <v>0.98933760091480849</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B148" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C148" t="s">
+        <v>74</v>
+      </c>
+      <c r="D148" t="s">
+        <v>77</v>
+      </c>
+      <c r="E148">
+        <v>0.93259784198625506</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B149" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C149" t="s">
+        <v>74</v>
+      </c>
+      <c r="D149" t="s">
+        <v>78</v>
+      </c>
+      <c r="E149">
+        <v>0.87470179214438704</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C150" t="s">
+        <v>74</v>
+      </c>
+      <c r="D150" t="s">
+        <v>79</v>
+      </c>
+      <c r="E150">
+        <v>0.87217871731380625</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B151" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C151" t="s">
+        <v>52</v>
+      </c>
+      <c r="D151" t="s">
+        <v>39</v>
+      </c>
+      <c r="E151">
+        <v>0.80043288153532943</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B152" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C152" t="s">
+        <v>79</v>
+      </c>
+      <c r="D152" t="s">
+        <v>74</v>
+      </c>
+      <c r="E152">
+        <v>0.87217871731380625</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B153" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C153" t="s">
+        <v>79</v>
+      </c>
+      <c r="D153" t="s">
+        <v>75</v>
+      </c>
+      <c r="E153">
+        <v>0.871876860077621</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B154" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C154" t="s">
+        <v>79</v>
+      </c>
+      <c r="D154" t="s">
+        <v>76</v>
+      </c>
+      <c r="E154">
+        <v>0.88022912359571448</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B155" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C155" t="s">
+        <v>79</v>
+      </c>
+      <c r="D155" t="s">
+        <v>77</v>
+      </c>
+      <c r="E155">
+        <v>0.90995261689878937</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B156" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C156" t="s">
+        <v>79</v>
+      </c>
+      <c r="D156" t="s">
+        <v>78</v>
+      </c>
+      <c r="E156">
+        <v>0.89036023109944429</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B157" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C157" t="s">
+        <v>17</v>
+      </c>
+      <c r="D157" t="s">
+        <v>15</v>
+      </c>
+      <c r="E157">
+        <v>0.89115525770542581</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B158" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C158" t="s">
+        <v>78</v>
+      </c>
+      <c r="D158" t="s">
+        <v>74</v>
+      </c>
+      <c r="E158">
+        <v>0.87470179214438704</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B159" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C159" t="s">
+        <v>78</v>
+      </c>
+      <c r="D159" t="s">
+        <v>75</v>
+      </c>
+      <c r="E159">
+        <v>0.87368446561288382</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B160" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C160" t="s">
+        <v>78</v>
+      </c>
+      <c r="D160" t="s">
+        <v>76</v>
+      </c>
+      <c r="E160">
+        <v>0.8818583614483575</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B161" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C161" t="s">
+        <v>78</v>
+      </c>
+      <c r="D161" t="s">
+        <v>77</v>
+      </c>
+      <c r="E161">
+        <v>0.93687750323733954</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B162" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C162" t="s">
+        <v>78</v>
+      </c>
+      <c r="D162" t="s">
+        <v>79</v>
+      </c>
+      <c r="E162">
+        <v>0.89036023109944429</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B327" t="s">
+      <c r="B163" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C327">
+      <c r="C163" t="s">
+        <v>67</v>
+      </c>
+      <c r="D163" t="s">
+        <v>68</v>
+      </c>
+      <c r="E163">
+        <v>0.81642034867781155</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B164" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C164" t="s">
+        <v>67</v>
+      </c>
+      <c r="D164" t="s">
+        <v>69</v>
+      </c>
+      <c r="E164">
+        <v>0.94186078915767446</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B165" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C165" t="s">
+        <v>68</v>
+      </c>
+      <c r="D165" t="s">
+        <v>67</v>
+      </c>
+      <c r="E165">
+        <v>0.81642034867781155</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B166" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C166" t="s">
+        <v>68</v>
+      </c>
+      <c r="D166" t="s">
+        <v>69</v>
+      </c>
+      <c r="E166">
+        <v>0.91781987699170031</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B167" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C167" t="s">
+        <v>69</v>
+      </c>
+      <c r="D167" t="s">
+        <v>67</v>
+      </c>
+      <c r="E167">
+        <v>0.94186078915767446</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B168" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C168" t="s">
+        <v>69</v>
+      </c>
+      <c r="D168" t="s">
+        <v>68</v>
+      </c>
+      <c r="E168">
+        <v>0.91781987699170031</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B169" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C169" t="s">
+        <v>76</v>
+      </c>
+      <c r="D169" t="s">
+        <v>74</v>
+      </c>
+      <c r="E169">
+        <v>0.98933760091480849</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B170" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C170" t="s">
+        <v>76</v>
+      </c>
+      <c r="D170" t="s">
+        <v>75</v>
+      </c>
+      <c r="E170">
+        <v>0.98922876170090313</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B171" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C171" t="s">
+        <v>76</v>
+      </c>
+      <c r="D171" t="s">
+        <v>77</v>
+      </c>
+      <c r="E171">
+        <v>0.94082219083836838</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B172" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C172" t="s">
+        <v>76</v>
+      </c>
+      <c r="D172" t="s">
+        <v>78</v>
+      </c>
+      <c r="E172">
+        <v>0.8818583614483575</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B173" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C173" t="s">
+        <v>76</v>
+      </c>
+      <c r="D173" t="s">
+        <v>79</v>
+      </c>
+      <c r="E173">
+        <v>0.88022912359571448</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B174" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C174" t="s">
+        <v>77</v>
+      </c>
+      <c r="D174" t="s">
+        <v>74</v>
+      </c>
+      <c r="E174">
+        <v>0.93259784198625506</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B175" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C175" t="s">
+        <v>77</v>
+      </c>
+      <c r="D175" t="s">
+        <v>75</v>
+      </c>
+      <c r="E175">
+        <v>0.93265223905745887</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B176" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C176" t="s">
+        <v>77</v>
+      </c>
+      <c r="D176" t="s">
+        <v>76</v>
+      </c>
+      <c r="E176">
+        <v>0.94082219083836838</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B177" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C177" t="s">
+        <v>77</v>
+      </c>
+      <c r="D177" t="s">
+        <v>78</v>
+      </c>
+      <c r="E177">
+        <v>0.93687750323733954</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B178" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C178" t="s">
+        <v>77</v>
+      </c>
+      <c r="D178" t="s">
+        <v>79</v>
+      </c>
+      <c r="E178">
+        <v>0.90995261689878937</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B179" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C179" t="s">
+        <v>39</v>
+      </c>
+      <c r="D179" t="s">
+        <v>30</v>
+      </c>
+      <c r="E179">
+        <v>0.80541885205299601</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B180" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C180" t="s">
+        <v>39</v>
+      </c>
+      <c r="D180" t="s">
+        <v>37</v>
+      </c>
+      <c r="E180">
+        <v>-0.80267289133100639</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B181" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C181" t="s">
+        <v>39</v>
+      </c>
+      <c r="D181" t="s">
+        <v>52</v>
+      </c>
+      <c r="E181">
+        <v>0.80043288153532943</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182" s="15"/>
+      <c r="B182" s="16"/>
+      <c r="C182" t="s">
+        <v>66</v>
+      </c>
+      <c r="D182" t="s">
+        <v>65</v>
+      </c>
+      <c r="E182">
+        <v>0.84728978870344507</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183" s="15"/>
+      <c r="B183" s="16"/>
+      <c r="C183" t="s">
+        <v>64</v>
+      </c>
+      <c r="D183" t="s">
+        <v>65</v>
+      </c>
+      <c r="E183">
+        <v>-0.82119166588364101</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A184" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B184" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C184" t="s">
+        <v>75</v>
+      </c>
+      <c r="D184" t="s">
+        <v>74</v>
+      </c>
+      <c r="E184">
+        <v>0.99978579084638086</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B185" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C185" t="s">
+        <v>75</v>
+      </c>
+      <c r="D185" t="s">
+        <v>76</v>
+      </c>
+      <c r="E185">
+        <v>0.98922876170090313</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A186" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B186" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C186" t="s">
+        <v>75</v>
+      </c>
+      <c r="D186" t="s">
+        <v>77</v>
+      </c>
+      <c r="E186">
+        <v>0.93265223905745887</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B187" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C187" t="s">
+        <v>75</v>
+      </c>
+      <c r="D187" t="s">
+        <v>78</v>
+      </c>
+      <c r="E187">
+        <v>0.87368446561288382</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A188" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B188" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C188" t="s">
+        <v>75</v>
+      </c>
+      <c r="D188" t="s">
+        <v>79</v>
+      </c>
+      <c r="E188">
+        <v>0.871876860077621</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A189" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B189" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C189" t="s">
+        <v>50</v>
+      </c>
+      <c r="D189" t="s">
+        <v>51</v>
+      </c>
+      <c r="E189">
+        <v>0.83508549361475271</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A190" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B190" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C190" t="s">
+        <v>51</v>
+      </c>
+      <c r="D190" t="s">
+        <v>50</v>
+      </c>
+      <c r="E190">
+        <v>0.83508549361475271</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A191" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B191" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C191" t="s">
+        <v>62</v>
+      </c>
+      <c r="D191" t="s">
+        <v>61</v>
+      </c>
+      <c r="E191">
+        <v>-0.81484870197130521</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A192" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B192" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C192" t="s">
+        <v>62</v>
+      </c>
+      <c r="D192" t="s">
+        <v>63</v>
+      </c>
+      <c r="E192">
+        <v>0.8458739811923478</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A193" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B193" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C193" t="s">
+        <v>73</v>
+      </c>
+      <c r="D193" t="s">
+        <v>72</v>
+      </c>
+      <c r="E193">
+        <v>0.97275461975693656</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A194" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B194" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C194" t="s">
+        <v>20</v>
+      </c>
+      <c r="D194" t="s">
+        <v>21</v>
+      </c>
+      <c r="E194">
+        <v>0.99392286927147788</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A195" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B195" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C195" t="s">
+        <v>20</v>
+      </c>
+      <c r="D195" t="s">
+        <v>22</v>
+      </c>
+      <c r="E195">
+        <v>0.88479349656750306</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A196" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B196" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C196" t="s">
+        <v>20</v>
+      </c>
+      <c r="D196" t="s">
+        <v>23</v>
+      </c>
+      <c r="E196">
+        <v>0.98578611387074833</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A197" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B197" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C197" t="s">
+        <v>20</v>
+      </c>
+      <c r="D197" t="s">
+        <v>24</v>
+      </c>
+      <c r="E197">
+        <v>0.86376603901488869</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A198" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B198" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C198" t="s">
+        <v>20</v>
+      </c>
+      <c r="D198" t="s">
+        <v>25</v>
+      </c>
+      <c r="E198">
+        <v>0.83668790352220768</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A199" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B199" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C199" t="s">
+        <v>20</v>
+      </c>
+      <c r="D199" t="s">
+        <v>26</v>
+      </c>
+      <c r="E199">
+        <v>0.91318988376169696</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A200" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B200" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C200" t="s">
+        <v>20</v>
+      </c>
+      <c r="D200" t="s">
+        <v>27</v>
+      </c>
+      <c r="E200">
+        <v>0.98498142251848209</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A201" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B201" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C201" t="s">
+        <v>20</v>
+      </c>
+      <c r="D201" t="s">
+        <v>19</v>
+      </c>
+      <c r="E201">
+        <v>0.8252349970458005</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A202" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B202" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C202" t="s">
+        <v>23</v>
+      </c>
+      <c r="D202" t="s">
+        <v>20</v>
+      </c>
+      <c r="E202">
+        <v>0.98578611387074833</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A203" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B203" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C203" t="s">
+        <v>23</v>
+      </c>
+      <c r="D203" t="s">
+        <v>21</v>
+      </c>
+      <c r="E203">
+        <v>0.98224070996285384</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A204" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B204" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C204" t="s">
+        <v>23</v>
+      </c>
+      <c r="D204" t="s">
+        <v>22</v>
+      </c>
+      <c r="E204">
+        <v>0.87381795703477705</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A205" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B205" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C205" t="s">
+        <v>23</v>
+      </c>
+      <c r="D205" t="s">
+        <v>24</v>
+      </c>
+      <c r="E205">
+        <v>0.84652840756498948</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A206" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B206" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C206" t="s">
+        <v>23</v>
+      </c>
+      <c r="D206" t="s">
+        <v>25</v>
+      </c>
+      <c r="E206">
+        <v>0.81572077648542507</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A207" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B207" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C207" t="s">
+        <v>23</v>
+      </c>
+      <c r="D207" t="s">
+        <v>26</v>
+      </c>
+      <c r="E207">
+        <v>0.89998220295587583</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A208" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B208" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C208" t="s">
+        <v>23</v>
+      </c>
+      <c r="D208" t="s">
+        <v>27</v>
+      </c>
+      <c r="E208">
+        <v>0.97290651675010253</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A209" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B209" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C209" t="s">
+        <v>21</v>
+      </c>
+      <c r="D209" t="s">
+        <v>20</v>
+      </c>
+      <c r="E209">
+        <v>0.99392286927147788</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A210" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B210" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C210" t="s">
+        <v>21</v>
+      </c>
+      <c r="D210" t="s">
+        <v>22</v>
+      </c>
+      <c r="E210">
+        <v>0.8811365137216618</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A211" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B211" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C211" t="s">
+        <v>21</v>
+      </c>
+      <c r="D211" t="s">
+        <v>23</v>
+      </c>
+      <c r="E211">
+        <v>0.98224070996285384</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A212" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B212" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C212" t="s">
+        <v>21</v>
+      </c>
+      <c r="D212" t="s">
+        <v>24</v>
+      </c>
+      <c r="E212">
+        <v>0.86139072966414632</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A213" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B213" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C213" t="s">
+        <v>21</v>
+      </c>
+      <c r="D213" t="s">
+        <v>25</v>
+      </c>
+      <c r="E213">
+        <v>0.83523355380571596</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A214" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B214" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C214" t="s">
+        <v>21</v>
+      </c>
+      <c r="D214" t="s">
+        <v>26</v>
+      </c>
+      <c r="E214">
+        <v>0.90961680733633499</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A215" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B215" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C215" t="s">
+        <v>21</v>
+      </c>
+      <c r="D215" t="s">
+        <v>27</v>
+      </c>
+      <c r="E215">
+        <v>0.99123927729621253</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A216" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B216" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C216" t="s">
+        <v>21</v>
+      </c>
+      <c r="D216" t="s">
+        <v>19</v>
+      </c>
+      <c r="E216">
+        <v>0.83017578823623983</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A217" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B217" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C217" t="s">
+        <v>27</v>
+      </c>
+      <c r="D217" t="s">
+        <v>20</v>
+      </c>
+      <c r="E217">
+        <v>0.98498142251848209</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A218" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B218" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C218" t="s">
+        <v>27</v>
+      </c>
+      <c r="D218" t="s">
+        <v>21</v>
+      </c>
+      <c r="E218">
+        <v>0.99123927729621253</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A219" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B219" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C219" t="s">
+        <v>27</v>
+      </c>
+      <c r="D219" t="s">
+        <v>22</v>
+      </c>
+      <c r="E219">
+        <v>0.88264488747300607</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A220" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B220" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C220" t="s">
+        <v>27</v>
+      </c>
+      <c r="D220" t="s">
+        <v>23</v>
+      </c>
+      <c r="E220">
+        <v>0.97290651675010253</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A221" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B221" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C221" t="s">
+        <v>27</v>
+      </c>
+      <c r="D221" t="s">
+        <v>24</v>
+      </c>
+      <c r="E221">
+        <v>0.86261890013713283</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A222" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B222" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C222" t="s">
+        <v>27</v>
+      </c>
+      <c r="D222" t="s">
+        <v>25</v>
+      </c>
+      <c r="E222">
+        <v>0.83617762027666009</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A223" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B223" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C223" t="s">
+        <v>27</v>
+      </c>
+      <c r="D223" t="s">
+        <v>26</v>
+      </c>
+      <c r="E223">
+        <v>0.90620587548438969</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A224" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B224" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C224" t="s">
+        <v>27</v>
+      </c>
+      <c r="D224" t="s">
+        <v>19</v>
+      </c>
+      <c r="E224">
+        <v>0.83683201538182428</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A225" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B225" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C225" t="s">
+        <v>19</v>
+      </c>
+      <c r="D225" t="s">
+        <v>18</v>
+      </c>
+      <c r="E225">
+        <v>0.85304833892100362</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A226" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B226" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C226" t="s">
+        <v>19</v>
+      </c>
+      <c r="D226" t="s">
+        <v>20</v>
+      </c>
+      <c r="E226">
+        <v>0.8252349970458005</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A227" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B227" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C227" t="s">
+        <v>19</v>
+      </c>
+      <c r="D227" t="s">
+        <v>21</v>
+      </c>
+      <c r="E227">
+        <v>0.83017578823623983</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A228" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B228" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C228" t="s">
+        <v>19</v>
+      </c>
+      <c r="D228" t="s">
+        <v>27</v>
+      </c>
+      <c r="E228">
+        <v>0.83683201538182428</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A229" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B229" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C229" t="s">
+        <v>63</v>
+      </c>
+      <c r="D229" t="s">
+        <v>62</v>
+      </c>
+      <c r="E229">
+        <v>0.8458739811923478</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A230" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B230" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C230" t="s">
+        <v>55</v>
+      </c>
+      <c r="D230" t="s">
+        <v>56</v>
+      </c>
+      <c r="E230">
+        <v>0.83865145417381981</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A231" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B231" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C231" t="s">
+        <v>55</v>
+      </c>
+      <c r="D231" t="s">
+        <v>57</v>
+      </c>
+      <c r="E231">
+        <v>-0.84254742425163665</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A232" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B232" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C232" t="s">
+        <v>55</v>
+      </c>
+      <c r="D232" t="s">
+        <v>58</v>
+      </c>
+      <c r="E232">
+        <v>-0.84426831845563077</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A233" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B233" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C233" t="s">
+        <v>55</v>
+      </c>
+      <c r="D233" t="s">
+        <v>59</v>
+      </c>
+      <c r="E233">
+        <v>-0.90607119206199771</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A234" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B234" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C234" t="s">
+        <v>55</v>
+      </c>
+      <c r="D234" t="s">
+        <v>60</v>
+      </c>
+      <c r="E234">
+        <v>-0.911693192786319</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A235" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B235" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C235" t="s">
+        <v>26</v>
+      </c>
+      <c r="D235" t="s">
+        <v>20</v>
+      </c>
+      <c r="E235">
+        <v>0.91318988376169696</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A236" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B236" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C236" t="s">
+        <v>26</v>
+      </c>
+      <c r="D236" t="s">
+        <v>21</v>
+      </c>
+      <c r="E236">
+        <v>0.90961680733633499</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A237" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B237" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C237" t="s">
+        <v>26</v>
+      </c>
+      <c r="D237" t="s">
+        <v>22</v>
+      </c>
+      <c r="E237">
+        <v>0.97979210867034228</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A238" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B238" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C238" t="s">
+        <v>26</v>
+      </c>
+      <c r="D238" t="s">
+        <v>23</v>
+      </c>
+      <c r="E238">
+        <v>0.89998220295587583</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A239" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B239" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C239" t="s">
+        <v>26</v>
+      </c>
+      <c r="D239" t="s">
+        <v>24</v>
+      </c>
+      <c r="E239">
+        <v>0.98863354125821257</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A240" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B240" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C240" t="s">
+        <v>26</v>
+      </c>
+      <c r="D240" t="s">
+        <v>25</v>
+      </c>
+      <c r="E240">
+        <v>0.97952164800223873</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A241" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B241" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C241" t="s">
+        <v>26</v>
+      </c>
+      <c r="D241" t="s">
+        <v>27</v>
+      </c>
+      <c r="E241">
+        <v>0.90620587548438969</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A242" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B242" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C242" t="s">
+        <v>18</v>
+      </c>
+      <c r="D242" t="s">
+        <v>19</v>
+      </c>
+      <c r="E242">
+        <v>0.85304833892100362</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A243" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B243" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C243" t="s">
+        <v>6</v>
+      </c>
+      <c r="D243" t="s">
+        <v>3</v>
+      </c>
+      <c r="E243">
+        <v>0.87772806313930707</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A244" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B244" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C244" t="s">
+        <v>6</v>
+      </c>
+      <c r="D244" t="s">
+        <v>4</v>
+      </c>
+      <c r="E244">
+        <v>0.86971530532835795</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A245" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B245" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C245" t="s">
+        <v>6</v>
+      </c>
+      <c r="D245" t="s">
+        <v>5</v>
+      </c>
+      <c r="E245">
+        <v>0.96541325422940116</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A246" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B246" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C246" t="s">
+        <v>6</v>
+      </c>
+      <c r="D246" t="s">
+        <v>7</v>
+      </c>
+      <c r="E246">
+        <v>0.95755419889549265</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A247" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B247" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C247" t="s">
+        <v>6</v>
+      </c>
+      <c r="D247" t="s">
+        <v>8</v>
+      </c>
+      <c r="E247">
+        <v>0.92607961384553728</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A248" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B248" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C248" t="s">
+        <v>28</v>
+      </c>
+      <c r="D248" t="s">
+        <v>29</v>
+      </c>
+      <c r="E248">
+        <v>0.94509775570309285</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A249" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B249" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C249" t="s">
+        <v>28</v>
+      </c>
+      <c r="D249" t="s">
+        <v>30</v>
+      </c>
+      <c r="E249">
+        <v>0.81606594274479494</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A250" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B250" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C250" t="s">
+        <v>28</v>
+      </c>
+      <c r="D250" t="s">
+        <v>31</v>
+      </c>
+      <c r="E250">
+        <v>0.94763887499796173</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A251" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B251" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C251" t="s">
+        <v>28</v>
+      </c>
+      <c r="D251" t="s">
+        <v>32</v>
+      </c>
+      <c r="E251">
+        <v>0.99536664955086862</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A252" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B252" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C252" t="s">
+        <v>28</v>
+      </c>
+      <c r="D252" t="s">
+        <v>33</v>
+      </c>
+      <c r="E252">
+        <v>0.9456511559680385</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A253" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B253" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C253" t="s">
+        <v>28</v>
+      </c>
+      <c r="D253" t="s">
+        <v>34</v>
+      </c>
+      <c r="E253">
+        <v>0.82127215180520674</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A254" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B254" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C254" t="s">
+        <v>28</v>
+      </c>
+      <c r="D254" t="s">
+        <v>35</v>
+      </c>
+      <c r="E254">
+        <v>0.87762657548120393</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A255" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B255" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C255" t="s">
+        <v>32</v>
+      </c>
+      <c r="D255" t="s">
+        <v>28</v>
+      </c>
+      <c r="E255">
+        <v>0.99536664955086862</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A256" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B256" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C256" t="s">
+        <v>32</v>
+      </c>
+      <c r="D256" t="s">
+        <v>29</v>
+      </c>
+      <c r="E256">
+        <v>0.93259344297173263</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A257" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B257" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C257" t="s">
+        <v>32</v>
+      </c>
+      <c r="D257" t="s">
+        <v>31</v>
+      </c>
+      <c r="E257">
+        <v>0.93855213320841235</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A258" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B258" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C258" t="s">
+        <v>32</v>
+      </c>
+      <c r="D258" t="s">
+        <v>33</v>
+      </c>
+      <c r="E258">
+        <v>0.93787684292491613</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A259" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B259" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C259" t="s">
+        <v>32</v>
+      </c>
+      <c r="D259" t="s">
+        <v>34</v>
+      </c>
+      <c r="E259">
+        <v>0.80562669291055045</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A260" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B260" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C260" t="s">
+        <v>32</v>
+      </c>
+      <c r="D260" t="s">
+        <v>35</v>
+      </c>
+      <c r="E260">
+        <v>0.87752443813048353</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A261" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B261" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C261" t="s">
+        <v>31</v>
+      </c>
+      <c r="D261" t="s">
+        <v>28</v>
+      </c>
+      <c r="E261">
+        <v>0.94763887499796173</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A262" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B262" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C262" t="s">
+        <v>31</v>
+      </c>
+      <c r="D262" t="s">
+        <v>29</v>
+      </c>
+      <c r="E262">
+        <v>0.98931840808821037</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A263" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B263" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C263" t="s">
+        <v>31</v>
+      </c>
+      <c r="D263" t="s">
+        <v>30</v>
+      </c>
+      <c r="E263">
+        <v>0.93320570779382961</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A264" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B264" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C264" t="s">
+        <v>31</v>
+      </c>
+      <c r="D264" t="s">
+        <v>32</v>
+      </c>
+      <c r="E264">
+        <v>0.93855213320841235</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A265" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B265" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C265" t="s">
+        <v>31</v>
+      </c>
+      <c r="D265" t="s">
+        <v>33</v>
+      </c>
+      <c r="E265">
+        <v>0.99017093453572858</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A266" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B266" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C266" t="s">
+        <v>31</v>
+      </c>
+      <c r="D266" t="s">
+        <v>34</v>
+      </c>
+      <c r="E266">
+        <v>0.93761106516609372</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A267" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B267" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C267" t="s">
+        <v>31</v>
+      </c>
+      <c r="D267" t="s">
+        <v>36</v>
+      </c>
+      <c r="E267">
+        <v>-0.80479711907240159</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A268" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B268" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C268" t="s">
+        <v>31</v>
+      </c>
+      <c r="D268" t="s">
+        <v>37</v>
+      </c>
+      <c r="E268">
+        <v>-0.84591054857453385</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A269" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B269" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C269" t="s">
+        <v>31</v>
+      </c>
+      <c r="D269" t="s">
+        <v>35</v>
+      </c>
+      <c r="E269">
+        <v>0.86733723324496903</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A270" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B270" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C270" t="s">
+        <v>31</v>
+      </c>
+      <c r="D270" t="s">
+        <v>38</v>
+      </c>
+      <c r="E270">
+        <v>0.8311941478559185</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A271" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B271" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C271" t="s">
+        <v>29</v>
+      </c>
+      <c r="D271" t="s">
+        <v>28</v>
+      </c>
+      <c r="E271">
+        <v>0.94509775570309285</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A272" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B272" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C272" t="s">
+        <v>29</v>
+      </c>
+      <c r="D272" t="s">
+        <v>30</v>
+      </c>
+      <c r="E272">
+        <v>0.95412058477960204</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A273" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B273" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C273" t="s">
+        <v>29</v>
+      </c>
+      <c r="D273" t="s">
+        <v>31</v>
+      </c>
+      <c r="E273">
+        <v>0.98931840808821037</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A274" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B274" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C274" t="s">
+        <v>29</v>
+      </c>
+      <c r="D274" t="s">
+        <v>32</v>
+      </c>
+      <c r="E274">
+        <v>0.93259344297173263</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A275" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B275" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C275" t="s">
+        <v>29</v>
+      </c>
+      <c r="D275" t="s">
+        <v>33</v>
+      </c>
+      <c r="E275">
+        <v>0.99698992232050698</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A276" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B276" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C276" t="s">
+        <v>29</v>
+      </c>
+      <c r="D276" t="s">
+        <v>34</v>
+      </c>
+      <c r="E276">
+        <v>0.95504430552259389</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A277" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B277" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C277" t="s">
+        <v>29</v>
+      </c>
+      <c r="D277" t="s">
+        <v>36</v>
+      </c>
+      <c r="E277">
+        <v>-0.82255098980120644</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A278" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B278" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C278" t="s">
+        <v>29</v>
+      </c>
+      <c r="D278" t="s">
+        <v>37</v>
+      </c>
+      <c r="E278">
+        <v>-0.87984930061471545</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A279" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B279" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C279" t="s">
+        <v>29</v>
+      </c>
+      <c r="D279" t="s">
+        <v>35</v>
+      </c>
+      <c r="E279">
+        <v>0.86932053871902826</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A280" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B280" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C280" t="s">
+        <v>29</v>
+      </c>
+      <c r="D280" t="s">
+        <v>38</v>
+      </c>
+      <c r="E280">
+        <v>0.84954149865237805</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A281" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B281" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C281" t="s">
+        <v>33</v>
+      </c>
+      <c r="D281" t="s">
+        <v>28</v>
+      </c>
+      <c r="E281">
+        <v>0.9456511559680385</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A282" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B282" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C282" t="s">
+        <v>33</v>
+      </c>
+      <c r="D282" t="s">
+        <v>29</v>
+      </c>
+      <c r="E282">
+        <v>0.99698992232050698</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A283" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B283" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C283" t="s">
+        <v>33</v>
+      </c>
+      <c r="D283" t="s">
+        <v>30</v>
+      </c>
+      <c r="E283">
+        <v>0.94892685843193336</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A284" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B284" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C284" t="s">
+        <v>33</v>
+      </c>
+      <c r="D284" t="s">
+        <v>31</v>
+      </c>
+      <c r="E284">
+        <v>0.99017093453572858</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A285" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B285" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C285" t="s">
+        <v>33</v>
+      </c>
+      <c r="D285" t="s">
+        <v>32</v>
+      </c>
+      <c r="E285">
+        <v>0.93787684292491613</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A286" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B286" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C286" t="s">
+        <v>33</v>
+      </c>
+      <c r="D286" t="s">
+        <v>34</v>
+      </c>
+      <c r="E286">
+        <v>0.95570059638301763</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A287" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B287" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C287" t="s">
+        <v>33</v>
+      </c>
+      <c r="D287" t="s">
+        <v>36</v>
+      </c>
+      <c r="E287">
+        <v>-0.82530096574014911</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A288" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B288" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C288" t="s">
+        <v>33</v>
+      </c>
+      <c r="D288" t="s">
+        <v>37</v>
+      </c>
+      <c r="E288">
+        <v>-0.87058960594492862</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A289" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B289" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C289" t="s">
+        <v>33</v>
+      </c>
+      <c r="D289" t="s">
+        <v>35</v>
+      </c>
+      <c r="E289">
+        <v>0.87360527986291547</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A290" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B290" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C290" t="s">
+        <v>33</v>
+      </c>
+      <c r="D290" t="s">
+        <v>38</v>
+      </c>
+      <c r="E290">
+        <v>0.84145017151826407</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A291" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B291" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C291" t="s">
+        <v>30</v>
+      </c>
+      <c r="D291" t="s">
+        <v>28</v>
+      </c>
+      <c r="E291">
+        <v>0.81606594274479494</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A292" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B292" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C292" t="s">
+        <v>30</v>
+      </c>
+      <c r="D292" t="s">
+        <v>29</v>
+      </c>
+      <c r="E292">
+        <v>0.95412058477960204</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A293" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B293" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C293" t="s">
+        <v>30</v>
+      </c>
+      <c r="D293" t="s">
+        <v>31</v>
+      </c>
+      <c r="E293">
+        <v>0.93320570779382961</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A294" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B294" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C294" t="s">
+        <v>30</v>
+      </c>
+      <c r="D294" t="s">
+        <v>33</v>
+      </c>
+      <c r="E294">
+        <v>0.94892685843193336</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A295" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B295" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C295" t="s">
+        <v>30</v>
+      </c>
+      <c r="D295" t="s">
+        <v>34</v>
+      </c>
+      <c r="E295">
+        <v>0.99417549892530888</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A296" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B296" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C296" t="s">
+        <v>30</v>
+      </c>
+      <c r="D296" t="s">
+        <v>36</v>
+      </c>
+      <c r="E296">
+        <v>-0.83038730297768404</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A297" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B297" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C297" t="s">
+        <v>30</v>
+      </c>
+      <c r="D297" t="s">
+        <v>37</v>
+      </c>
+      <c r="E297">
+        <v>-0.91752368801258477</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A298" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B298" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C298" t="s">
+        <v>30</v>
+      </c>
+      <c r="D298" t="s">
+        <v>39</v>
+      </c>
+      <c r="E298">
+        <v>0.80541885205299601</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A299" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B299" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C299" t="s">
+        <v>30</v>
+      </c>
+      <c r="D299" t="s">
+        <v>38</v>
+      </c>
+      <c r="E299">
+        <v>0.89611960857388051</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A300" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B300" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C300" t="s">
+        <v>34</v>
+      </c>
+      <c r="D300" t="s">
+        <v>28</v>
+      </c>
+      <c r="E300">
+        <v>0.82127215180520674</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A301" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B301" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C301" t="s">
+        <v>34</v>
+      </c>
+      <c r="D301" t="s">
+        <v>29</v>
+      </c>
+      <c r="E301">
+        <v>0.95504430552259389</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A302" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B302" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C302" t="s">
+        <v>34</v>
+      </c>
+      <c r="D302" t="s">
+        <v>30</v>
+      </c>
+      <c r="E302">
+        <v>0.99417549892530888</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A303" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B303" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C303" t="s">
+        <v>34</v>
+      </c>
+      <c r="D303" t="s">
+        <v>31</v>
+      </c>
+      <c r="E303">
+        <v>0.93761106516609372</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A304" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B304" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C304" t="s">
+        <v>34</v>
+      </c>
+      <c r="D304" t="s">
+        <v>32</v>
+      </c>
+      <c r="E304">
+        <v>0.80562669291055045</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A305" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B305" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C305" t="s">
+        <v>34</v>
+      </c>
+      <c r="D305" t="s">
+        <v>33</v>
+      </c>
+      <c r="E305">
+        <v>0.95570059638301763</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A306" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B306" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C306" t="s">
+        <v>34</v>
+      </c>
+      <c r="D306" t="s">
+        <v>36</v>
+      </c>
+      <c r="E306">
+        <v>-0.83600444923975847</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A307" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B307" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C307" t="s">
+        <v>34</v>
+      </c>
+      <c r="D307" t="s">
+        <v>37</v>
+      </c>
+      <c r="E307">
+        <v>-0.90500716792243874</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A308" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B308" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C308" t="s">
+        <v>34</v>
+      </c>
+      <c r="D308" t="s">
+        <v>35</v>
+      </c>
+      <c r="E308">
+        <v>0.80117326849345438</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A309" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B309" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C309" t="s">
+        <v>34</v>
+      </c>
+      <c r="D309" t="s">
+        <v>38</v>
+      </c>
+      <c r="E309">
+        <v>0.88800203101227915</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A310" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B310" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C310" t="s">
+        <v>10</v>
+      </c>
+      <c r="D310" t="s">
+        <v>9</v>
+      </c>
+      <c r="E310">
+        <v>0.97305740134674379</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A311" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B311" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C311" t="s">
+        <v>10</v>
+      </c>
+      <c r="D311" t="s">
+        <v>11</v>
+      </c>
+      <c r="E311">
+        <v>0.92724011531617989</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A312" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B312" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C312" t="s">
+        <v>10</v>
+      </c>
+      <c r="D312" t="s">
+        <v>12</v>
+      </c>
+      <c r="E312">
+        <v>0.95410520342821026</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A313" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B313" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C313" t="s">
+        <v>10</v>
+      </c>
+      <c r="D313" t="s">
+        <v>14</v>
+      </c>
+      <c r="E313">
+        <v>0.93131258595650313</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A314" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B314" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C314" t="s">
+        <v>9</v>
+      </c>
+      <c r="D314" t="s">
+        <v>10</v>
+      </c>
+      <c r="E314">
+        <v>0.97305740134674379</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A315" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B315" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C315" t="s">
+        <v>9</v>
+      </c>
+      <c r="D315" t="s">
+        <v>11</v>
+      </c>
+      <c r="E315">
+        <v>0.94778421987653616</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A316" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B316" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C316" t="s">
+        <v>9</v>
+      </c>
+      <c r="D316" t="s">
+        <v>12</v>
+      </c>
+      <c r="E316">
+        <v>0.95402376071242556</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A317" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B317" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C317" t="s">
+        <v>9</v>
+      </c>
+      <c r="D317" t="s">
+        <v>13</v>
+      </c>
+      <c r="E317">
+        <v>0.8267524679543562</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A318" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B318" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C318" t="s">
+        <v>9</v>
+      </c>
+      <c r="D318" t="s">
+        <v>14</v>
+      </c>
+      <c r="E318">
+        <v>0.95362868784814048</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A319" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B319" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C319" t="s">
+        <v>5</v>
+      </c>
+      <c r="D319" t="s">
+        <v>3</v>
+      </c>
+      <c r="E319">
+        <v>0.84278078146120461</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A320" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B320" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C320" t="s">
+        <v>5</v>
+      </c>
+      <c r="D320" t="s">
+        <v>4</v>
+      </c>
+      <c r="E320">
+        <v>0.83842480778557715</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A321" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B321" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C321" t="s">
+        <v>5</v>
+      </c>
+      <c r="D321" t="s">
+        <v>6</v>
+      </c>
+      <c r="E321">
+        <v>0.96541325422940116</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A322" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B322" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C322" t="s">
+        <v>5</v>
+      </c>
+      <c r="D322" t="s">
+        <v>7</v>
+      </c>
+      <c r="E322">
+        <v>0.98990798205520303</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A323" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B323" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C323" t="s">
+        <v>5</v>
+      </c>
+      <c r="D323" t="s">
+        <v>8</v>
+      </c>
+      <c r="E323">
+        <v>0.93549038261419715</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A324" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B324" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C324" t="s">
+        <v>71</v>
+      </c>
+      <c r="D324" t="s">
+        <v>70</v>
+      </c>
+      <c r="E324">
         <v>0.9999968524210392</v>
       </c>
     </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A325" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B325" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C325" t="s">
+        <v>70</v>
+      </c>
+      <c r="D325" t="s">
+        <v>71</v>
+      </c>
+      <c r="E325">
+        <v>0.9999968524210392</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C327" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C327">
-    <sortCondition ref="A2:A327"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
